--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3657.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3657.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.286030903091362</v>
+        <v>1.367430090904236</v>
       </c>
       <c r="B1">
-        <v>1.627404732472595</v>
+        <v>1.599879860877991</v>
       </c>
       <c r="C1">
-        <v>2.38755317493434</v>
+        <v>1.358075857162476</v>
       </c>
       <c r="D1">
-        <v>7.773783347687856</v>
+        <v>1.411431789398193</v>
       </c>
       <c r="E1">
-        <v>2.769422390109382</v>
+        <v>0.9763326048851013</v>
       </c>
     </row>
   </sheetData>
